--- a/doc/capabilities.xlsx
+++ b/doc/capabilities.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\VSCode\kul-mai-thesis\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\VSCode\kul-mai-thesis-report\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="75">
   <si>
     <t>Missing values</t>
   </si>
@@ -366,15 +366,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>REP</t>
-  </si>
-  <si>
-    <t>EBP</t>
-  </si>
-  <si>
-    <t>CCP</t>
-  </si>
-  <si>
     <t>Structure</t>
   </si>
   <si>
@@ -433,6 +424,9 @@
   </si>
   <si>
     <t>Rule-based pruning</t>
+  </si>
+  <si>
+    <t>Error Based Pruning (EBP)</t>
   </si>
 </sst>
 </file>
@@ -569,27 +563,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -637,196 +611,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1171,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,8 +967,8 @@
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="2.28515625" customWidth="1"/>
-    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
@@ -1213,7 +997,7 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>
@@ -1225,13 +1009,13 @@
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P2" t="s">
         <v>4</v>
       </c>
       <c r="Q2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
@@ -1260,7 +1044,7 @@
         <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
@@ -1289,7 +1073,7 @@
         <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
         <v>9</v>
@@ -1337,7 +1121,7 @@
         <v>8</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
         <v>9</v>
@@ -1385,7 +1169,7 @@
         <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
         <v>8</v>
@@ -1414,6 +1198,15 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
       <c r="G7" t="s">
         <v>8</v>
       </c>
@@ -1433,14 +1226,20 @@
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
       <c r="G8" t="s">
         <v>8</v>
       </c>
@@ -1451,7 +1250,7 @@
         <v>9</v>
       </c>
       <c r="L8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M8" t="s">
         <v>9</v>
@@ -1523,7 +1322,7 @@
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1571,7 +1370,7 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1725,6 +1524,15 @@
       <c r="M14" t="s">
         <v>9</v>
       </c>
+      <c r="N14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" t="s">
+        <v>9</v>
+      </c>
       <c r="Q14" t="s">
         <v>8</v>
       </c>
@@ -1764,7 +1572,13 @@
       <c r="M15" t="s">
         <v>9</v>
       </c>
+      <c r="N15" t="s">
+        <v>9</v>
+      </c>
       <c r="O15" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" t="s">
         <v>9</v>
       </c>
       <c r="Q15" t="s">
@@ -1867,7 +1681,7 @@
         <v>9</v>
       </c>
       <c r="S17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T17" t="b">
         <f>Table2[[#This Row],[J48]]=Table2[[#This Row],[DTC]]</f>
@@ -1981,7 +1795,7 @@
         <v>9</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M20" t="s">
         <v>8</v>
@@ -2077,7 +1891,7 @@
         <v>9</v>
       </c>
       <c r="L22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M22" t="s">
         <v>9</v>
@@ -2206,7 +2020,7 @@
         <v>9</v>
       </c>
       <c r="L25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M25" t="s">
         <v>8</v>
@@ -2333,7 +2147,7 @@
         <v>8</v>
       </c>
       <c r="L28" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="M28" t="s">
         <v>9</v>
@@ -2379,7 +2193,7 @@
         <v>8</v>
       </c>
       <c r="L29" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="M29" t="s">
         <v>9</v>
@@ -2425,7 +2239,7 @@
         <v>8</v>
       </c>
       <c r="L30" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="M30" t="s">
         <v>9</v>
@@ -2473,7 +2287,7 @@
         <v>9</v>
       </c>
       <c r="L31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M31" t="s">
         <v>9</v>
@@ -2521,7 +2335,7 @@
         <v>9</v>
       </c>
       <c r="K32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="T32" t="b">
         <f>Table2[[#This Row],[J48]]=Table2[[#This Row],[DTC]]</f>
@@ -2554,7 +2368,7 @@
         <v>9</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M33" t="s">
         <v>9</v>
@@ -2602,7 +2416,7 @@
         <v>9</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M34" t="s">
         <v>8</v>
@@ -2650,7 +2464,7 @@
         <v>9</v>
       </c>
       <c r="K35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T35" t="b">
         <f>Table2[[#This Row],[J48]]=Table2[[#This Row],[DTC]]</f>
@@ -2707,29 +2521,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C35:I35 C3:I31">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:I34">
-    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:Q11 M40:Q49 M13:Q37">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:Q12">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
